--- a/Documentation/Testing/Test case for Currency Trader News Alert App.xlsx
+++ b/Documentation/Testing/Test case for Currency Trader News Alert App.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gord\Desktop\alan - testing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AndroidCollegeProject\Documentation\Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BDE157D-B589-42D5-95B5-B0D0F6321F53}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53277B63-5831-4902-B9FE-D8FA940DA215}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4665" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="87">
   <si>
     <t>Test No.</t>
   </si>
@@ -38,12 +38,6 @@
     <t>Manual</t>
   </si>
   <si>
-    <t>BM - Risk Routing</t>
-  </si>
-  <si>
-    <t>4.1.x</t>
-  </si>
-  <si>
     <t>TC-19105</t>
   </si>
   <si>
@@ -56,48 +50,12 @@
     <t>Steps To Reproduce</t>
   </si>
   <si>
-    <t>1) Log in as a trader which is a member of the BM external trader group. Enter a Benchmark order which will be risk routed to the benchmark external group, and wait for the order to be risk routed.
-2) Select the Benchmark order in the external group and cancel it
-3) Enter a EURGBP order which will spawn for the same fixing as the above benchmark, ensure all legs will be risk routed to the benchmark external group, and wait for the order to be risk routed.
-4) Select all the USDGBP BMRT order and cancel it.</t>
-  </si>
-  <si>
-    <t>1) The order is entered and routed to the external benchmark trader group at pre-HCO
-2) The right click context menu has a cancel option. When selected the the Risk which is being cancelled appears in the the cancellation window. When cancelled both BMRT legs are cancelled and removed from the summary
-3) The new orders are entered and on the second pre-HCO all orders are risk routed to the external
-4) The USDGBP risk is selected for cancellation, in the cancellation window contains the USDGBP and the EURUSD risk from the EURGBP order only. When cancelled both BMRT legs are cancelled and removed from the summary. The original EURUSD order still has its BMRT risk  in the external benchmark group.</t>
-  </si>
-  <si>
-    <t>Verify trader that is a member of an external trader group can cancel BMRT orders in the external group)</t>
-  </si>
-  <si>
     <t>TC-19106</t>
   </si>
   <si>
     <t>Name</t>
   </si>
   <si>
-    <t>Dev Acceptance: Cancel Street Facing BMRTs - Cancel Reject</t>
-  </si>
-  <si>
-    <t>Dev Acceptance: Cancel Street Facing BMRTs - Cancel</t>
-  </si>
-  <si>
-    <t>Verify trader that is a member of an external trader group can Accept/Reject cancel BMRT orders in the external group</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1) Log in as a trader which is a member of the BM external trader group. Enter a Benchmark order which will be risk routed to the benchmark external group, and wait for the order to be risk routed.
-2) Select the Benchmark order in the external group and cancel it, Reject the cancellation
-3) Select the order again and reopen it for cancellation. Leave the order in cancellation acceptance until HCO
-4) After HCO has passed attempt to cancel the order again. </t>
-  </si>
-  <si>
-    <t>1) The order is entered and routed to the external benchmark trader group at pre-HCO
-2) The right click context menu has a cancel option. When selected the the Risk which is being cancelled appears in the the cancellation window. The cancellation is rejected and the order is rolled back to active.
-3) When HCO is passed the cancellation is automatically rejected 
-4) After HCO the user cannot select the order for cancellation.</t>
-  </si>
-  <si>
     <t>Version</t>
   </si>
   <si>
@@ -177,9 +135,6 @@
   </si>
   <si>
     <t>Dev Acceptance:  Clear Main Actvity Screen</t>
-  </si>
-  <si>
-    <t>Main screen is to be cleared of all market impact data.</t>
   </si>
   <si>
     <t>Minor</t>
@@ -194,9 +149,6 @@
   </si>
   <si>
     <t>Dev Acceptance:  Display all available market data</t>
-  </si>
-  <si>
-    <t>All market data that is currently stored in the database is to be displayed.</t>
   </si>
   <si>
     <t>1) Start application.
@@ -206,12 +158,6 @@
   </si>
   <si>
     <t>CT-0003</t>
-  </si>
-  <si>
-    <t>Dev Acceptance: Currencies Selected</t>
-  </si>
-  <si>
-    <t>All currencies that are selected for display should have a tick in their checkbox selection area.</t>
   </si>
   <si>
     <t>1) Start application.
@@ -230,7 +176,171 @@
     <t>1)  Main dsiplay contains a scrollable list of all market data currently in the database.</t>
   </si>
   <si>
-    <t>1)  'EUR' and  'GBP', the previously selected currencies still have their checkboxes ticked / selected.</t>
+    <t>1)  'EUR' and  'GBP', the previously selected currencies still have their checkboxes ticked / selected.
+2)  Main dsiplay remains unchanged unless selections have been made in bottom toolbar option 'Select Market Impacts(s)'.
+3)  If selections have been made in previous step - main display updates with new currency data by market impact.</t>
+  </si>
+  <si>
+    <t>CT-0004</t>
+  </si>
+  <si>
+    <t>Dev Acceptance: 'Select Market Impacts(s)'</t>
+  </si>
+  <si>
+    <t>1) Start application.
+2) Select bottom toolbar - 3rd option -  'Select Market Impacts(s)'
+3) All checkboxes beside all market impacts should be empty.
+4) Select sample market impacts, e.g. 'High' and  'Medium, their checkboxes should be ticked / selected.
+5)  Select 'OK' .
+6) Screen disappears.
+7)  Select bottom toolbar, again, - 3rd option -  'Select Market Impacts(s)'.</t>
+  </si>
+  <si>
+    <t>1)  'High' and  'Medium', the previously selected market impacts still have their checkboxes ticked / selected.
+2)  Main display remains unchanged unless selections have been made in bottom toolbar option 'Select Currencies'.
+3)  If selections have been made in previous step - main display updates with new currency data by market impact.</t>
+  </si>
+  <si>
+    <t>Dev Acceptance: Select Currencies</t>
+  </si>
+  <si>
+    <t>CT-0005</t>
+  </si>
+  <si>
+    <t>Dev Acceptance: Debug Display</t>
+  </si>
+  <si>
+    <t>1) Start application.
+2) Select bottom toolbar - 3rd option -  'Select Market Impacts(s)'
+3) All checkboxes beside all market impacts should be empty.
+4) Select sample market impacts, e.g. 'High' and  'Medium, their checkboxes should be ticked / selected.
+5)  Select 'OK' .
+6) Screen disappears.
+7) Select bottom toolbar - 4th option - 'Select Currencies'
+8) All checkboxes beside all currencies should be empty.
+9) Select sample currencies, e.g. 'EUR' and  'GBP', their checkboxes should be ticked / selected.
+10)  Select 'OK' .
+11) Screen disappears.</t>
+  </si>
+  <si>
+    <t>In the console window the following will be displayed:
+DEBUG: EUR
+DEBUG: GBP
+DEBUG: High
+DEBUG: Medium</t>
+  </si>
+  <si>
+    <t>CT-0006</t>
+  </si>
+  <si>
+    <t>Dev Acceptance: Update XML (Market Data)</t>
+  </si>
+  <si>
+    <t>Verify that main screen is cleared of all market impact data.</t>
+  </si>
+  <si>
+    <t>Verify that market data that is currently stored in the database is displayed on main screen.</t>
+  </si>
+  <si>
+    <t>Verify that all Market Impacts(s)that are selected for display have a tick in their checkbox selection area that persists.</t>
+  </si>
+  <si>
+    <t>Verify that all currencies that are selected for display have a tick in their checkbox selection area that persists.</t>
+  </si>
+  <si>
+    <t>Verify that currently selected currencies and market impacts are written out to the console window.</t>
+  </si>
+  <si>
+    <t>Verify that market data has been sucesssfully downloaded, converted, stored in database and displayed to main screen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Start application.
+2) Select top toolbar - 1st menu option:  'Update XML Market Data' 
+3) Select bottom toolbar - 1st menu option:  'Clear'.                                             
+4) Select top toolbar - 1st menu option:  'Update XML Market Data'  </t>
+  </si>
+  <si>
+    <t>1)  At the top of the main screen - 'data updated' will display the date that the data has been updated.
+2)  Main screen will display all downloaded &amp; stored data.</t>
+  </si>
+  <si>
+    <t>CT-0007</t>
+  </si>
+  <si>
+    <t>Dev Acceptance: Set alert on market event</t>
+  </si>
+  <si>
+    <t>Verify that user can set an alert on a market event.</t>
+  </si>
+  <si>
+    <t>1) Start application.
+2) Select top toolbar - 1st menu option:  'Update XML Market Data' 
+3)  Select / click on an event on the Main screen.
+4)  Dialog box opens 'Set alert on this market event ?' - select 'OK'.</t>
+  </si>
+  <si>
+    <t>1)  User alerts screen opens containing the newly selected market event and any previously set alerts (if any).
+2)  If the newly added event's date or time is  in the past, alert notification will fire.</t>
+  </si>
+  <si>
+    <t>CT-0008</t>
+  </si>
+  <si>
+    <t>1)  Set an alert on a merket event - follow steps in test CT-0007 (Dev Acceptance: Set alert on market event)
+2)  On the User Alerts screen, select / click on the event to be deleted.
+3)  Dialog box opens: 'Delete this user alert ?'
+4)  Select 'OK'.</t>
+  </si>
+  <si>
+    <t>1)  User alert selected for deletion has been removed from list of user alerts on user alert screen.</t>
+  </si>
+  <si>
+    <t>CT-0009</t>
+  </si>
+  <si>
+    <t>Dev Acceptance: Delete user alert on previously set  market event</t>
+  </si>
+  <si>
+    <t>Verify that a previously set  user alert on a market event has been deleted.</t>
+  </si>
+  <si>
+    <t>1) Select top toolbar - 1st menu option:  'User Alerts' - user alerts screen is displayed. 
+2)  On bottom toolbar select 1st option: 'Set Personal Alert'.
+3) Personal alert screen is displayed
+4)  Enter title of alert.
+5) Enter description of alert.
+6)  Click 'Set Date' button and select a date using the datepicker displayed.
+7)  Click 'Set Time' button and select a time using the timepicker displayed.
+8) Click 'Set Alert' button.</t>
+  </si>
+  <si>
+    <t>1) Personal alerts screen closes.
+1)  User alerts screen opens containing the newly input personal alert and any previously set alerts (if any).
+2)  If the newly added alert's date or time is in the past, alert notification will fire.</t>
+  </si>
+  <si>
+    <t>Dev Acceptance: Set a personal alert</t>
+  </si>
+  <si>
+    <t>Verify that the user can set a personal alert on a date and time of their choosing, with accompanying title and description.</t>
+  </si>
+  <si>
+    <t>CT-0010</t>
+  </si>
+  <si>
+    <t>Dev Acceptance: Alert activation</t>
+  </si>
+  <si>
+    <t>Verify that a set alert activates.</t>
+  </si>
+  <si>
+    <t>1) Follow steps in test CT-0009 - setting date to today's date and time to a minute in the future.
+2) Wait for 1 minute.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) In approximately 1 minute an alert will sound, a notification will display and a new screen with an alert activated warning will display.
+2) User can click the 'Back' button which will return them to the user alert screen.
+</t>
   </si>
 </sst>
 </file>
@@ -647,10 +757,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -669,16 +779,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>10</v>
-      </c>
       <c r="E1" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>1</v>
@@ -687,148 +797,279 @@
         <v>2</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="I1" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="2" customFormat="1" ht="255" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="2" t="s">
+    <row r="3" spans="1:9" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="E3" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="195" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="I3" s="2" t="s">
+    <row r="4" spans="1:9" ht="163.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="163.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>50</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="F5" s="2">
         <v>1.1000000000000001</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="3" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="I5" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="163.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="225" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>52</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="F6" s="2">
         <v>1.1000000000000001</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="3" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="I6" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="225" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="E7" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>61</v>
       </c>
       <c r="F7" s="2">
         <v>1.1000000000000001</v>
       </c>
       <c r="G7" s="2"/>
-      <c r="H7" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="I7" s="3" t="s">
+      <c r="H7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F11" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G11" s="2"/>
+      <c r="H11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F13" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G13" s="2"/>
+      <c r="H13" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F14" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G14" s="2"/>
+      <c r="H14" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="270" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F15" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G15" s="2"/>
+      <c r="H15" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="F16" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G16" s="2"/>
+      <c r="H16" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I16" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -856,53 +1097,53 @@
   <sheetData>
     <row r="1" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -910,19 +1151,19 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="G5" s="6">
         <v>43325</v>
@@ -930,19 +1171,19 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="F6" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="G6" s="6">
         <v>43325</v>
@@ -950,50 +1191,50 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B14" s="7" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B15" s="8" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" s="8" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" s="8" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" s="8" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/Testing/Test case for Currency Trader News Alert App.xlsx
+++ b/Documentation/Testing/Test case for Currency Trader News Alert App.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AndroidCollegeProject\Documentation\Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53277B63-5831-4902-B9FE-D8FA940DA215}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB945D75-627F-4A59-BDF8-68ECAAB3E234}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4665" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="107">
   <si>
     <t>Test No.</t>
   </si>
@@ -132,9 +132,6 @@
   </si>
   <si>
     <t>CT-0001</t>
-  </si>
-  <si>
-    <t>Dev Acceptance:  Clear Main Actvity Screen</t>
   </si>
   <si>
     <t>Minor</t>
@@ -171,14 +168,6 @@
   <si>
     <t>1)  At the top of the screen 'Clear Option Selected' is displayed. 
 2)  Main display is blank and clear of all market data.</t>
-  </si>
-  <si>
-    <t>1)  Main dsiplay contains a scrollable list of all market data currently in the database.</t>
-  </si>
-  <si>
-    <t>1)  'EUR' and  'GBP', the previously selected currencies still have their checkboxes ticked / selected.
-2)  Main dsiplay remains unchanged unless selections have been made in bottom toolbar option 'Select Market Impacts(s)'.
-3)  If selections have been made in previous step - main display updates with new currency data by market impact.</t>
   </si>
   <si>
     <t>CT-0004</t>
@@ -251,9 +240,6 @@
     <t>Verify that currently selected currencies and market impacts are written out to the console window.</t>
   </si>
   <si>
-    <t>Verify that market data has been sucesssfully downloaded, converted, stored in database and displayed to main screen.</t>
-  </si>
-  <si>
     <t xml:space="preserve">1) Start application.
 2) Select top toolbar - 1st menu option:  'Update XML Market Data' 
 3) Select bottom toolbar - 1st menu option:  'Clear'.                                             
@@ -286,22 +272,139 @@
     <t>CT-0008</t>
   </si>
   <si>
-    <t>1)  Set an alert on a merket event - follow steps in test CT-0007 (Dev Acceptance: Set alert on market event)
+    <t>1)  User alert selected for deletion has been removed from list of user alerts on user alert screen.</t>
+  </si>
+  <si>
+    <t>CT-0009</t>
+  </si>
+  <si>
+    <t>Dev Acceptance: Delete user alert on previously set  market event</t>
+  </si>
+  <si>
+    <t>Verify that a previously set  user alert on a market event has been deleted.</t>
+  </si>
+  <si>
+    <t>1) Personal alerts screen closes.
+1)  User alerts screen opens containing the newly input personal alert and any previously set alerts (if any).
+2)  If the newly added alert's date or time is in the past, alert notification will fire.</t>
+  </si>
+  <si>
+    <t>Dev Acceptance: Set a personal alert</t>
+  </si>
+  <si>
+    <t>Verify that the user can set a personal alert on a date and time of their choosing, with accompanying title and description.</t>
+  </si>
+  <si>
+    <t>CT-0010</t>
+  </si>
+  <si>
+    <t>Dev Acceptance: Alert activation</t>
+  </si>
+  <si>
+    <t>Verify that a set alert activates.</t>
+  </si>
+  <si>
+    <t>1) Follow steps in test CT-0009 - setting date to today's date and time to a minute in the future.
+2) Wait for 1 minute.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) In approximately 1 minute an alert will sound, a notification will display and a new screen with an alert activated warning will display.
+2) User can click the 'Back' button which will return them to the user alert screen.
+</t>
+  </si>
+  <si>
+    <t>CT-0011</t>
+  </si>
+  <si>
+    <t>Dev Acceptance: User set time offset</t>
+  </si>
+  <si>
+    <t>Verify that user can set a time offset, so that all market data alerts can be activated by a set amount of time, either before or after the original scheduled alert time.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Start application.
+2) Select top toolbar - 3rd menu option:  'Preferences' - preferences screen is displayed.
+3) User enters a  number between -60 and + 60 (inclusive), e.g. 10 and then clicks the 'Set' button.
+</t>
+  </si>
+  <si>
+    <t>1) Main screen is displayed.
+2) 'Times offset by' at the top of the screen will indicate the number of minutes market events are currently offset by, in this case 10 minutes as entered previously.
+3) All scrollable, market events have been updated by +10 minutes.</t>
+  </si>
+  <si>
+    <t>CT-0012</t>
+  </si>
+  <si>
+    <t>Verify that user has input correct value when setting a time offset.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Start application.
+2) Select top toolbar - 3rd menu option:  'Preferences' - preferences screen is displayed.
+3) User leaves input blank and clicks the 'Set' button.
+</t>
+  </si>
+  <si>
+    <t>1) Error message is displayed: 'Input must not be blank'</t>
+  </si>
+  <si>
+    <t>CT-0013</t>
+  </si>
+  <si>
+    <t>Dev Acceptance: Validate correct input for user time offset input - not a valid number</t>
+  </si>
+  <si>
+    <t>Dev Acceptance: Validate correct input for user time offset input - blank entry</t>
+  </si>
+  <si>
+    <t>Verify that user has input a valid number value when setting a time offset.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Start application.
+2) Select top toolbar - 3rd menu option:  'Preferences' - preferences screen is displayed.
+3) User enters non digit characters and clicks the 'Set' button.
+</t>
+  </si>
+  <si>
+    <t>1) Error message is displayed: 'Must be a number'</t>
+  </si>
+  <si>
+    <t>CT-0014</t>
+  </si>
+  <si>
+    <t>Dev Acceptance: Validate correct input for user time offset input - valid number between -60 and +60 inclusive</t>
+  </si>
+  <si>
+    <t>Verify that user has input a valid number value between -60 and +60 inclusive.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Start application.
+2) Select top toolbar - 3rd menu option:  'Preferences' - preferences screen is displayed.
+3) User enters 100 and clicks the 'Set' button.
+</t>
+  </si>
+  <si>
+    <t>1) Error message is displayed: 'Number must be between plus or minus 60 minutes (inclusive)'.</t>
+  </si>
+  <si>
+    <t>Dev Acceptance:  Clear Main Activity Screen</t>
+  </si>
+  <si>
+    <t>1)  Main display contains a scrollable list of all market data currently in the database.</t>
+  </si>
+  <si>
+    <t>1)  'EUR' and  'GBP', the previously selected currencies still have their checkboxes ticked / selected.
+2)  Main display remains unchanged unless selections have been made in bottom toolbar option 'Select Market Impacts(s)'.
+3)  If selections have been made in previous step - main display updates with new currency data by market impact.</t>
+  </si>
+  <si>
+    <t>Verify that market data has been successfully downloaded, converted, stored in database and displayed to main screen.</t>
+  </si>
+  <si>
+    <t>1)  Set an alert on a market event - follow steps in test CT-0007 (Dev Acceptance: Set alert on market event)
 2)  On the User Alerts screen, select / click on the event to be deleted.
 3)  Dialog box opens: 'Delete this user alert ?'
 4)  Select 'OK'.</t>
-  </si>
-  <si>
-    <t>1)  User alert selected for deletion has been removed from list of user alerts on user alert screen.</t>
-  </si>
-  <si>
-    <t>CT-0009</t>
-  </si>
-  <si>
-    <t>Dev Acceptance: Delete user alert on previously set  market event</t>
-  </si>
-  <si>
-    <t>Verify that a previously set  user alert on a market event has been deleted.</t>
   </si>
   <si>
     <t>1) Select top toolbar - 1st menu option:  'User Alerts' - user alerts screen is displayed. 
@@ -309,38 +412,9 @@
 3) Personal alert screen is displayed
 4)  Enter title of alert.
 5) Enter description of alert.
-6)  Click 'Set Date' button and select a date using the datepicker displayed.
-7)  Click 'Set Time' button and select a time using the timepicker displayed.
+6)  Click 'Set Date' button and select a date using the date picker displayed.
+7)  Click 'Set Time' button and select a time using the time picker displayed.
 8) Click 'Set Alert' button.</t>
-  </si>
-  <si>
-    <t>1) Personal alerts screen closes.
-1)  User alerts screen opens containing the newly input personal alert and any previously set alerts (if any).
-2)  If the newly added alert's date or time is in the past, alert notification will fire.</t>
-  </si>
-  <si>
-    <t>Dev Acceptance: Set a personal alert</t>
-  </si>
-  <si>
-    <t>Verify that the user can set a personal alert on a date and time of their choosing, with accompanying title and description.</t>
-  </si>
-  <si>
-    <t>CT-0010</t>
-  </si>
-  <si>
-    <t>Dev Acceptance: Alert activation</t>
-  </si>
-  <si>
-    <t>Verify that a set alert activates.</t>
-  </si>
-  <si>
-    <t>1) Follow steps in test CT-0009 - setting date to today's date and time to a minute in the future.
-2) Wait for 1 minute.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1) In approximately 1 minute an alert will sound, a notification will display and a new screen with an alert activated warning will display.
-2) User can click the 'Back' button which will return them to the user alert screen.
-</t>
   </si>
 </sst>
 </file>
@@ -757,10 +831,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -808,23 +882,23 @@
         <v>36</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>37</v>
+        <v>101</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F3" s="2">
         <v>1.1000000000000001</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>4</v>
@@ -832,19 +906,19 @@
     </row>
     <row r="4" spans="1:9" ht="163.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>42</v>
-      </c>
       <c r="E4" s="3" t="s">
-        <v>46</v>
+        <v>102</v>
       </c>
       <c r="F4" s="2">
         <v>1.1000000000000001</v>
@@ -859,19 +933,19 @@
     </row>
     <row r="5" spans="1:9" ht="163.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F5" s="2">
         <v>1.1000000000000001</v>
@@ -886,19 +960,19 @@
     </row>
     <row r="6" spans="1:9" ht="225" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>47</v>
+        <v>103</v>
       </c>
       <c r="F6" s="2">
         <v>1.1000000000000001</v>
@@ -913,19 +987,19 @@
     </row>
     <row r="7" spans="1:9" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>53</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>56</v>
       </c>
       <c r="F7" s="2">
         <v>1.1000000000000001</v>
@@ -940,19 +1014,19 @@
     </row>
     <row r="11" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>64</v>
+        <v>104</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F11" s="2">
         <v>1.1000000000000001</v>
@@ -967,19 +1041,19 @@
     </row>
     <row r="13" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>71</v>
       </c>
       <c r="F13" s="2">
         <v>1.1000000000000001</v>
@@ -994,19 +1068,19 @@
     </row>
     <row r="14" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>77</v>
-      </c>
       <c r="D14" s="3" t="s">
-        <v>73</v>
+        <v>105</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="F14" s="2">
         <v>1.1000000000000001</v>
@@ -1021,19 +1095,19 @@
     </row>
     <row r="15" spans="1:9" ht="270" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>81</v>
-      </c>
       <c r="D15" s="3" t="s">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F15" s="2">
         <v>1.1000000000000001</v>
@@ -1048,19 +1122,19 @@
     </row>
     <row r="16" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="F16" s="2">
         <v>1.1000000000000001</v>
@@ -1070,6 +1144,115 @@
         <v>29</v>
       </c>
       <c r="I16" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="150" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F17" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G17" s="2"/>
+      <c r="H17" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J17" s="1"/>
+    </row>
+    <row r="18" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F18" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G18" s="2"/>
+      <c r="H18" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F19" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G19" s="2"/>
+      <c r="H19" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="105" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="F20" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G20" s="2"/>
+      <c r="H20" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I20" s="3" t="s">
         <v>4</v>
       </c>
     </row>
